--- a/Events_Menu_Cost_25_2025-07-26.xlsx
+++ b/Events_Menu_Cost_25_2025-07-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D980FC5-AACC-544B-8C54-97FF04BD0EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93521A2D-C57C-5C49-ADFF-C7171C5B11C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="1940" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="menu_cost" sheetId="1" r:id="rId1"/>
@@ -3298,7 +3298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="75" workbookViewId="0">
       <selection activeCell="F202" sqref="F202:F206"/>
     </sheetView>
   </sheetViews>
@@ -19262,6 +19262,285 @@
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="A165:F165"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A176:F176"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:F185"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A209:F209"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A224:F224"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="A239:F239"/>
+    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="A248:F248"/>
+    <mergeCell ref="A255:F255"/>
+    <mergeCell ref="A256:F256"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A274:F274"/>
+    <mergeCell ref="A282:F282"/>
+    <mergeCell ref="A283:F283"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="A299:F299"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A310:F310"/>
+    <mergeCell ref="A318:F318"/>
+    <mergeCell ref="A319:F319"/>
+    <mergeCell ref="A329:F329"/>
+    <mergeCell ref="A330:F330"/>
+    <mergeCell ref="A339:F339"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="A350:F350"/>
+    <mergeCell ref="A351:F351"/>
+    <mergeCell ref="A356:F356"/>
+    <mergeCell ref="A357:F357"/>
+    <mergeCell ref="A364:F364"/>
+    <mergeCell ref="A365:F365"/>
+    <mergeCell ref="A377:F377"/>
+    <mergeCell ref="A378:F378"/>
+    <mergeCell ref="A387:F387"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A394:F394"/>
+    <mergeCell ref="A395:F395"/>
+    <mergeCell ref="A402:F402"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="A410:F410"/>
+    <mergeCell ref="A411:F411"/>
+    <mergeCell ref="A421:F421"/>
+    <mergeCell ref="A422:F422"/>
+    <mergeCell ref="A427:F427"/>
+    <mergeCell ref="A428:F428"/>
+    <mergeCell ref="A434:F434"/>
+    <mergeCell ref="A435:F435"/>
+    <mergeCell ref="A443:F443"/>
+    <mergeCell ref="A444:F444"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A452:F452"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A461:F461"/>
+    <mergeCell ref="A468:F468"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A477:F477"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A485:F485"/>
+    <mergeCell ref="A486:F486"/>
+    <mergeCell ref="A491:F491"/>
+    <mergeCell ref="A492:F492"/>
+    <mergeCell ref="A501:F501"/>
+    <mergeCell ref="A502:F502"/>
+    <mergeCell ref="A511:F511"/>
+    <mergeCell ref="A512:F512"/>
+    <mergeCell ref="A520:F520"/>
+    <mergeCell ref="A521:F521"/>
+    <mergeCell ref="A530:F530"/>
+    <mergeCell ref="A531:F531"/>
+    <mergeCell ref="A538:F538"/>
+    <mergeCell ref="A539:F539"/>
+    <mergeCell ref="A549:F549"/>
+    <mergeCell ref="A550:F550"/>
+    <mergeCell ref="A558:F558"/>
+    <mergeCell ref="A559:F559"/>
+    <mergeCell ref="A567:F567"/>
+    <mergeCell ref="A568:F568"/>
+    <mergeCell ref="A573:F573"/>
+    <mergeCell ref="A574:F574"/>
+    <mergeCell ref="A579:F579"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="A584:F584"/>
+    <mergeCell ref="A585:F585"/>
+    <mergeCell ref="A590:F590"/>
+    <mergeCell ref="A591:F591"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A597:F597"/>
+    <mergeCell ref="A602:F602"/>
+    <mergeCell ref="A603:F603"/>
+    <mergeCell ref="A612:F612"/>
+    <mergeCell ref="A613:F613"/>
+    <mergeCell ref="A619:F619"/>
+    <mergeCell ref="A620:F620"/>
+    <mergeCell ref="A631:F631"/>
+    <mergeCell ref="A632:F632"/>
+    <mergeCell ref="A640:F640"/>
+    <mergeCell ref="A641:F641"/>
+    <mergeCell ref="A660:F660"/>
+    <mergeCell ref="A661:F661"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="A671:F671"/>
+    <mergeCell ref="A678:F678"/>
+    <mergeCell ref="A679:F679"/>
+    <mergeCell ref="A687:F687"/>
+    <mergeCell ref="A688:F688"/>
+    <mergeCell ref="A694:F694"/>
+    <mergeCell ref="A695:F695"/>
+    <mergeCell ref="A714:F714"/>
+    <mergeCell ref="A715:F715"/>
+    <mergeCell ref="A720:F720"/>
+    <mergeCell ref="A721:F721"/>
+    <mergeCell ref="A731:F731"/>
+    <mergeCell ref="A732:F732"/>
+    <mergeCell ref="A760:F760"/>
+    <mergeCell ref="A761:F761"/>
+    <mergeCell ref="A784:F784"/>
+    <mergeCell ref="A785:F785"/>
+    <mergeCell ref="A791:F791"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A801:F801"/>
+    <mergeCell ref="A802:F802"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A815:F815"/>
+    <mergeCell ref="A826:F826"/>
+    <mergeCell ref="A827:F827"/>
+    <mergeCell ref="A835:F835"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A844:F844"/>
+    <mergeCell ref="A845:F845"/>
+    <mergeCell ref="A859:F859"/>
+    <mergeCell ref="A860:F860"/>
+    <mergeCell ref="A872:F872"/>
+    <mergeCell ref="A873:F873"/>
+    <mergeCell ref="A879:F879"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A888:F888"/>
+    <mergeCell ref="A889:F889"/>
+    <mergeCell ref="A896:F896"/>
+    <mergeCell ref="A897:F897"/>
+    <mergeCell ref="A908:F908"/>
+    <mergeCell ref="A909:F909"/>
+    <mergeCell ref="A916:F916"/>
+    <mergeCell ref="A917:F917"/>
+    <mergeCell ref="A923:F923"/>
+    <mergeCell ref="A924:F924"/>
+    <mergeCell ref="A928:F928"/>
+    <mergeCell ref="A929:F929"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A937:F937"/>
+    <mergeCell ref="A941:F941"/>
+    <mergeCell ref="A942:F942"/>
+    <mergeCell ref="A949:F949"/>
+    <mergeCell ref="A950:F950"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A960:F960"/>
+    <mergeCell ref="A965:F965"/>
+    <mergeCell ref="A966:F966"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A971:F971"/>
+    <mergeCell ref="A975:F975"/>
+    <mergeCell ref="A976:F976"/>
+    <mergeCell ref="A980:F980"/>
+    <mergeCell ref="A981:F981"/>
+    <mergeCell ref="A985:F985"/>
+    <mergeCell ref="A986:F986"/>
+    <mergeCell ref="A990:F990"/>
+    <mergeCell ref="A991:F991"/>
+    <mergeCell ref="A995:F995"/>
+    <mergeCell ref="A996:F996"/>
+    <mergeCell ref="A1000:F1000"/>
+    <mergeCell ref="A1001:F1001"/>
+    <mergeCell ref="A1005:F1005"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:F1010"/>
+    <mergeCell ref="A1011:F1011"/>
+    <mergeCell ref="A1016:F1016"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1025:F1025"/>
+    <mergeCell ref="A1026:F1026"/>
+    <mergeCell ref="A1031:F1031"/>
+    <mergeCell ref="A1032:F1032"/>
+    <mergeCell ref="A1036:F1036"/>
+    <mergeCell ref="A1037:F1037"/>
+    <mergeCell ref="A1041:F1041"/>
+    <mergeCell ref="A1042:F1042"/>
+    <mergeCell ref="A1046:F1046"/>
+    <mergeCell ref="A1047:F1047"/>
+    <mergeCell ref="A1051:F1051"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:F1056"/>
+    <mergeCell ref="A1057:F1057"/>
+    <mergeCell ref="A1061:F1061"/>
+    <mergeCell ref="A1062:F1062"/>
+    <mergeCell ref="A1066:F1066"/>
+    <mergeCell ref="A1067:F1067"/>
+    <mergeCell ref="A1071:F1071"/>
+    <mergeCell ref="A1072:F1072"/>
+    <mergeCell ref="A1076:F1076"/>
+    <mergeCell ref="A1077:F1077"/>
+    <mergeCell ref="A1081:F1081"/>
+    <mergeCell ref="A1082:F1082"/>
+    <mergeCell ref="A1086:F1086"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:F1091"/>
+    <mergeCell ref="A1092:F1092"/>
+    <mergeCell ref="A1096:F1096"/>
+    <mergeCell ref="A1097:F1097"/>
+    <mergeCell ref="A1101:F1101"/>
+    <mergeCell ref="A1102:F1102"/>
+    <mergeCell ref="A1106:F1106"/>
+    <mergeCell ref="A1107:F1107"/>
+    <mergeCell ref="A1111:F1111"/>
+    <mergeCell ref="A1112:F1112"/>
+    <mergeCell ref="A1116:F1116"/>
+    <mergeCell ref="A1117:F1117"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1122:F1122"/>
+    <mergeCell ref="A1126:F1126"/>
+    <mergeCell ref="A1127:F1127"/>
+    <mergeCell ref="A1131:F1131"/>
+    <mergeCell ref="A1132:F1132"/>
+    <mergeCell ref="A1136:F1136"/>
+    <mergeCell ref="A1137:F1137"/>
+    <mergeCell ref="A1141:F1141"/>
+    <mergeCell ref="A1142:F1142"/>
+    <mergeCell ref="A1146:F1146"/>
+    <mergeCell ref="A1147:F1147"/>
+    <mergeCell ref="A1151:F1151"/>
+    <mergeCell ref="A1152:F1152"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1157:F1157"/>
+    <mergeCell ref="A1161:F1161"/>
     <mergeCell ref="A1186:F1186"/>
     <mergeCell ref="A1187:F1187"/>
     <mergeCell ref="A1191:F1191"/>
@@ -19279,285 +19558,6 @@
     <mergeCell ref="A1177:F1177"/>
     <mergeCell ref="A1181:F1181"/>
     <mergeCell ref="A1182:F1182"/>
-    <mergeCell ref="A1141:F1141"/>
-    <mergeCell ref="A1142:F1142"/>
-    <mergeCell ref="A1146:F1146"/>
-    <mergeCell ref="A1147:F1147"/>
-    <mergeCell ref="A1151:F1151"/>
-    <mergeCell ref="A1152:F1152"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1157:F1157"/>
-    <mergeCell ref="A1161:F1161"/>
-    <mergeCell ref="A1117:F1117"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1122:F1122"/>
-    <mergeCell ref="A1126:F1126"/>
-    <mergeCell ref="A1127:F1127"/>
-    <mergeCell ref="A1131:F1131"/>
-    <mergeCell ref="A1132:F1132"/>
-    <mergeCell ref="A1136:F1136"/>
-    <mergeCell ref="A1137:F1137"/>
-    <mergeCell ref="A1096:F1096"/>
-    <mergeCell ref="A1097:F1097"/>
-    <mergeCell ref="A1101:F1101"/>
-    <mergeCell ref="A1102:F1102"/>
-    <mergeCell ref="A1106:F1106"/>
-    <mergeCell ref="A1107:F1107"/>
-    <mergeCell ref="A1111:F1111"/>
-    <mergeCell ref="A1112:F1112"/>
-    <mergeCell ref="A1116:F1116"/>
-    <mergeCell ref="A1072:F1072"/>
-    <mergeCell ref="A1076:F1076"/>
-    <mergeCell ref="A1077:F1077"/>
-    <mergeCell ref="A1081:F1081"/>
-    <mergeCell ref="A1082:F1082"/>
-    <mergeCell ref="A1086:F1086"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:F1091"/>
-    <mergeCell ref="A1092:F1092"/>
-    <mergeCell ref="A1051:F1051"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:F1056"/>
-    <mergeCell ref="A1057:F1057"/>
-    <mergeCell ref="A1061:F1061"/>
-    <mergeCell ref="A1062:F1062"/>
-    <mergeCell ref="A1066:F1066"/>
-    <mergeCell ref="A1067:F1067"/>
-    <mergeCell ref="A1071:F1071"/>
-    <mergeCell ref="A1026:F1026"/>
-    <mergeCell ref="A1031:F1031"/>
-    <mergeCell ref="A1032:F1032"/>
-    <mergeCell ref="A1036:F1036"/>
-    <mergeCell ref="A1037:F1037"/>
-    <mergeCell ref="A1041:F1041"/>
-    <mergeCell ref="A1042:F1042"/>
-    <mergeCell ref="A1046:F1046"/>
-    <mergeCell ref="A1047:F1047"/>
-    <mergeCell ref="A1000:F1000"/>
-    <mergeCell ref="A1001:F1001"/>
-    <mergeCell ref="A1005:F1005"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:F1010"/>
-    <mergeCell ref="A1011:F1011"/>
-    <mergeCell ref="A1016:F1016"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1025:F1025"/>
-    <mergeCell ref="A976:F976"/>
-    <mergeCell ref="A980:F980"/>
-    <mergeCell ref="A981:F981"/>
-    <mergeCell ref="A985:F985"/>
-    <mergeCell ref="A986:F986"/>
-    <mergeCell ref="A990:F990"/>
-    <mergeCell ref="A991:F991"/>
-    <mergeCell ref="A995:F995"/>
-    <mergeCell ref="A996:F996"/>
-    <mergeCell ref="A949:F949"/>
-    <mergeCell ref="A950:F950"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A960:F960"/>
-    <mergeCell ref="A965:F965"/>
-    <mergeCell ref="A966:F966"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A971:F971"/>
-    <mergeCell ref="A975:F975"/>
-    <mergeCell ref="A917:F917"/>
-    <mergeCell ref="A923:F923"/>
-    <mergeCell ref="A924:F924"/>
-    <mergeCell ref="A928:F928"/>
-    <mergeCell ref="A929:F929"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A937:F937"/>
-    <mergeCell ref="A941:F941"/>
-    <mergeCell ref="A942:F942"/>
-    <mergeCell ref="A879:F879"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A888:F888"/>
-    <mergeCell ref="A889:F889"/>
-    <mergeCell ref="A896:F896"/>
-    <mergeCell ref="A897:F897"/>
-    <mergeCell ref="A908:F908"/>
-    <mergeCell ref="A909:F909"/>
-    <mergeCell ref="A916:F916"/>
-    <mergeCell ref="A827:F827"/>
-    <mergeCell ref="A835:F835"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A844:F844"/>
-    <mergeCell ref="A845:F845"/>
-    <mergeCell ref="A859:F859"/>
-    <mergeCell ref="A860:F860"/>
-    <mergeCell ref="A872:F872"/>
-    <mergeCell ref="A873:F873"/>
-    <mergeCell ref="A784:F784"/>
-    <mergeCell ref="A785:F785"/>
-    <mergeCell ref="A791:F791"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A801:F801"/>
-    <mergeCell ref="A802:F802"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A815:F815"/>
-    <mergeCell ref="A826:F826"/>
-    <mergeCell ref="A695:F695"/>
-    <mergeCell ref="A714:F714"/>
-    <mergeCell ref="A715:F715"/>
-    <mergeCell ref="A720:F720"/>
-    <mergeCell ref="A721:F721"/>
-    <mergeCell ref="A731:F731"/>
-    <mergeCell ref="A732:F732"/>
-    <mergeCell ref="A760:F760"/>
-    <mergeCell ref="A761:F761"/>
-    <mergeCell ref="A660:F660"/>
-    <mergeCell ref="A661:F661"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="A671:F671"/>
-    <mergeCell ref="A678:F678"/>
-    <mergeCell ref="A679:F679"/>
-    <mergeCell ref="A687:F687"/>
-    <mergeCell ref="A688:F688"/>
-    <mergeCell ref="A694:F694"/>
-    <mergeCell ref="A603:F603"/>
-    <mergeCell ref="A612:F612"/>
-    <mergeCell ref="A613:F613"/>
-    <mergeCell ref="A619:F619"/>
-    <mergeCell ref="A620:F620"/>
-    <mergeCell ref="A631:F631"/>
-    <mergeCell ref="A632:F632"/>
-    <mergeCell ref="A640:F640"/>
-    <mergeCell ref="A641:F641"/>
-    <mergeCell ref="A579:F579"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="A584:F584"/>
-    <mergeCell ref="A585:F585"/>
-    <mergeCell ref="A590:F590"/>
-    <mergeCell ref="A591:F591"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A597:F597"/>
-    <mergeCell ref="A602:F602"/>
-    <mergeCell ref="A539:F539"/>
-    <mergeCell ref="A549:F549"/>
-    <mergeCell ref="A550:F550"/>
-    <mergeCell ref="A558:F558"/>
-    <mergeCell ref="A559:F559"/>
-    <mergeCell ref="A567:F567"/>
-    <mergeCell ref="A568:F568"/>
-    <mergeCell ref="A573:F573"/>
-    <mergeCell ref="A574:F574"/>
-    <mergeCell ref="A501:F501"/>
-    <mergeCell ref="A502:F502"/>
-    <mergeCell ref="A511:F511"/>
-    <mergeCell ref="A512:F512"/>
-    <mergeCell ref="A520:F520"/>
-    <mergeCell ref="A521:F521"/>
-    <mergeCell ref="A530:F530"/>
-    <mergeCell ref="A531:F531"/>
-    <mergeCell ref="A538:F538"/>
-    <mergeCell ref="A461:F461"/>
-    <mergeCell ref="A468:F468"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A477:F477"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A485:F485"/>
-    <mergeCell ref="A486:F486"/>
-    <mergeCell ref="A491:F491"/>
-    <mergeCell ref="A492:F492"/>
-    <mergeCell ref="A427:F427"/>
-    <mergeCell ref="A428:F428"/>
-    <mergeCell ref="A434:F434"/>
-    <mergeCell ref="A435:F435"/>
-    <mergeCell ref="A443:F443"/>
-    <mergeCell ref="A444:F444"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A452:F452"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A394:F394"/>
-    <mergeCell ref="A395:F395"/>
-    <mergeCell ref="A402:F402"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A410:F410"/>
-    <mergeCell ref="A411:F411"/>
-    <mergeCell ref="A421:F421"/>
-    <mergeCell ref="A422:F422"/>
-    <mergeCell ref="A350:F350"/>
-    <mergeCell ref="A351:F351"/>
-    <mergeCell ref="A356:F356"/>
-    <mergeCell ref="A357:F357"/>
-    <mergeCell ref="A364:F364"/>
-    <mergeCell ref="A365:F365"/>
-    <mergeCell ref="A377:F377"/>
-    <mergeCell ref="A378:F378"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="A310:F310"/>
-    <mergeCell ref="A318:F318"/>
-    <mergeCell ref="A319:F319"/>
-    <mergeCell ref="A329:F329"/>
-    <mergeCell ref="A330:F330"/>
-    <mergeCell ref="A339:F339"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A274:F274"/>
-    <mergeCell ref="A282:F282"/>
-    <mergeCell ref="A283:F283"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A292:F292"/>
-    <mergeCell ref="A299:F299"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A231:F231"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A240:F240"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="A248:F248"/>
-    <mergeCell ref="A255:F255"/>
-    <mergeCell ref="A256:F256"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A209:F209"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A224:F224"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A153:F153"/>
-    <mergeCell ref="A164:F164"/>
-    <mergeCell ref="A165:F165"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A176:F176"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:F185"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A48:F48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
